--- a/inputs/ieh.xlsx
+++ b/inputs/ieh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8E404-F50A-426E-9548-1BBA09650F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A1B342-6243-4C50-AFCA-722BE90653C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -386,10 +386,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>324500</v>
+        <v>295000</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -422,10 +422,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.15*0.2)</f>
-        <v>314765</v>
+        <v>286150</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -458,10 +458,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.15*0.4)</f>
-        <v>305030</v>
+        <v>277300</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -494,10 +494,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.15*0.6)</f>
-        <v>295295</v>
+        <v>268450</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -530,10 +530,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.15*0.8)</f>
-        <v>285560</v>
+        <v>259600</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -566,10 +566,10 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'2025'!A2*(1-0.15*1)</f>
-        <v>275825</v>
+        <v>250750</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.02</v>
